--- a/medicine/Psychotrope/Côte-de-brouilly/Côte-de-brouilly.xlsx
+++ b/medicine/Psychotrope/Côte-de-brouilly/Côte-de-brouilly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>C%C3%B4te-de-brouilly</t>
+          <t>Côte-de-brouilly</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le côte-de-brouilly[1] est un vin rouge français d'appellation d'origine contrôlée produit dans le département du Rhône.
+Le côte-de-brouilly est un vin rouge français d'appellation d'origine contrôlée produit dans le département du Rhône.
 L'appellation couvre les pentes du mont Brouilly, dans le vignoble du Beaujolais.
 Elle est l'un des dix crus de ce vignoble, qui sont du nord au sud : le saint-amour, le juliénas, le chénas, le moulin-à-vent, le fleurie, le chiroubles, le morgon, le régnié, le brouilly et le côte-de-brouilly.
 </t>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>C%C3%B4te-de-brouilly</t>
+          <t>Côte-de-brouilly</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le côte-de-brouilly est reconnue par l'Institut national de l'origine et de la qualité (INAO) comme appellation d'origine contrôlée (AOC) depuis le décret du 19 octobre 1938[5].
-Étymologie
-L'appellation doit son nom au mont Brouilly, dont l'aire de production grimpe les pentes. Une légende veut que le mot « Brouilly » vienne du nom d'un officier romain nommé Brulius, qui se serait installé dans la région.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le côte-de-brouilly est reconnue par l'Institut national de l'origine et de la qualité (INAO) comme appellation d'origine contrôlée (AOC) depuis le décret du 19 octobre 1938.
 </t>
         </is>
       </c>
@@ -529,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>C%C3%B4te-de-brouilly</t>
+          <t>Côte-de-brouilly</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,17 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Situation géographique</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le côte-de-brouilly est produit dans le département du Rhône, à l'ouest de la ville de Belleville, presque au centre du vignoble du Beaujolais.
-Géologie
-Types de sols : schistes porphyres.
-Climatologie
-La station météo de Villefranche-sur-Saône (à 195 mètres d'altitude) est la plus proche de l'aire d'appellation. Ses valeurs climatiques de 1961 à 1990 sont : 
-Source : www.infoclimat.fr : Villefranche-sur-Saône (1961-1990)[6].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation doit son nom au mont Brouilly, dont l'aire de production grimpe les pentes. Une légende veut que le mot « Brouilly » vienne du nom d'un officier romain nommé Brulius, qui se serait installé dans la région.
 </t>
         </is>
       </c>
@@ -565,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>C%C3%B4te-de-brouilly</t>
+          <t>Côte-de-brouilly</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,26 +593,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Vignoble</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de production couvre 320 hectares sur les communes de Cercié, Quincié-en-Beaujolais, Odenas et Saint-Lager.
-Encépagement
-Le cépage essentiel est le gamay noir à jus blanc ; trois autres sont autorisés comme cépages accessoires, limités à 15 % au sein de chaque parcelle : l'aligoté B[3], le chardonnay B et le melon B.
-Le gamay est un cépage peu vigoureux, faible mais fertile et dont la production doit être maîtrisée car il a tendance à s'épuiser[7]. Les meilleurs vins de gamay sont obtenus, à l’opposé du pinot noir, sur des sols acides et granitiques. Son débourrement précoce le rend également sensible aux gelées de printemps. Il se montre parfois sensible au millerandage lorsque les conditions climatiques sont défavorables au moment de la floraison[7]. Le gamay présente l’avantage de produire une petite récolte sur les contre-bourgeons. Le vin de gamay possède une couleur rouge nuancée de violet, il est pauvre en tanins et dévoile une bonne acidité. Il possède généralement un caractère fruité (fruits rouges, fruits noirs) mais exprime peu de complexité au niveau aromatique[7].
-Culture de la vigne
-La taille est courte, en gobelet, éventail ou cordon, simple, double ou charmet avec 3 à 5 coursons à 1 ou 2 yeux.
-La conduite ancienne traditionnelle était en gobelet à densité élevée (entre 9 000 et 11 000 pieds par hectare).
-Aujourd'hui, le besoin de mécaniser le vignoble conduit les viticulteurs à planter à densité plus faible, mais supérieure à 6 000 pieds par hectare[4].
-L'écartement entre rangs ne peut excéder 2,3 mètres et entre ceps sur le rang, il doit être au minimum de 0,80 m. Pour les vignes non palissées en gobelet, l'écartement maximum entre rangs ne doit pas excéder 1,5 m. Des allées peuvent être aménagée en arrachant un rang de vigne. L'allée ne doit pas excéder 3 m et doit bénéficier d'un couvert végétal spontané ou semé. Les tournières doivent bénéficier d'un couvert végétal permanent.
-La hauteur de feuillage entre la limite inférieure du feuillage et la hauteur de rognage doit dépasser 0,6 fois l'écartement entre rangs et un palissage est obligatoire si l'écartement entre rangs dépasse 1,5 m.
-La taille courte est obligatoire. Traditionnellement en gobelet, la taille en cordon ou la taille « charmet » (taille inventée par M. Charmet en sud-Beaujolais, intermédiaire entre la taille en cordon et celle en éventail) sont aujourd'hui pratiquées. La taille est limitée à huit yeux porteurs de grappe après épamprage et un bras à deux yeux peut être ajouté en vue de rajeunir la souche[4].
-Vendanges et rendements
-Le rendement est limité à un maximum de 58 hectolitres par hectare ; le rendement butoir est de 63 hectolitres par hectare. Le rendement réel est très en dessous du maximum autorisé par le cahier des charges, par exemple le rendement moyen pour l'ensemble de l'appellation lors des vendanges 2010 est de 48,2 hectolitres par hectare[8].
-Les vendanges sont faites à la main, les grappes de raisin devant arriver intactes dans les cuves.
-Le premier jour des vendanges (appelé « levée du ban des vendanges ») varie selon la maturité des baies, qui dépend lui-même de l'ensoleillement reçu : les années relativement chaudes les raisins sont vendangés tôt, les années relativement froides les vendanges sont plus tardives.
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le côte-de-brouilly est produit dans le département du Rhône, à l'ouest de la ville de Belleville, presque au centre du vignoble du Beaujolais.
 </t>
         </is>
       </c>
@@ -610,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C%C3%B4te-de-brouilly</t>
+          <t>Côte-de-brouilly</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -625,16 +626,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vins</t>
+          <t>Situation géographique</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vinification et élevage
-Le mode de vinification du beaujolais explique beaucoup le type de vins très particulier qui y est produit. On l'appelle la macération carbonique : le raisin est encuvé entier et la cuve est fermée pendant quelques jours. La saturation de la cuve empêche les raisins de respirer, les obligeant à un mode de fonctionnement anaérobie. Cette évolution à l'intérieur du grain de raisin s'apparente à un début de fermentation. Elle produit un peu d'alcool et des précurseurs d'arômes. Ensuite, le raisin est foulé et une fermentation traditionnelle se poursuit.
-Pour les dix crus du Beaujolais, surtout pour ceux destinés à être élevé pendant une année et à être gardé quelques années de plus en bouteille, la vinification est semi-carbonique, à mi-chemin de la macération carbonique et de la vinification bourguignonne. Le raisin est récolté manuellement, encuvé entier sans éraflage. La fermentation débute comme pour une macération carbonique, mais au moment où le marc destiné au primeur est décuvé et pressé, les cuves destinées au vin de garde sont pigées et la macération se poursuit jusqu'à épuisement presque complet des sucres. Le vin est ensuite écoulé, le marc pressé et la fermentation malolactique peut s'enclencher tant que la température n'est pas trop descendue.
-Ce procédé favorise la production de vins peu tanniques, une coloration pas trop soutenue et des arômes fruités.
-Gastronomie</t>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Types de sols : schistes porphyres.
+</t>
         </is>
       </c>
     </row>
@@ -644,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>C%C3%B4te-de-brouilly</t>
+          <t>Côte-de-brouilly</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -659,15 +663,248 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La station météo de Villefranche-sur-Saône (à 195 mètres d'altitude) est la plus proche de l'aire d'appellation. Ses valeurs climatiques de 1961 à 1990 sont : 
+Source : www.infoclimat.fr : Villefranche-sur-Saône (1961-1990).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Côte-de-brouilly</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4te-de-brouilly</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de production couvre 320 hectares sur les communes de Cercié, Quincié-en-Beaujolais, Odenas et Saint-Lager.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Côte-de-brouilly</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4te-de-brouilly</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cépage essentiel est le gamay noir à jus blanc ; trois autres sont autorisés comme cépages accessoires, limités à 15 % au sein de chaque parcelle : l'aligoté B, le chardonnay B et le melon B.
+Le gamay est un cépage peu vigoureux, faible mais fertile et dont la production doit être maîtrisée car il a tendance à s'épuiser. Les meilleurs vins de gamay sont obtenus, à l’opposé du pinot noir, sur des sols acides et granitiques. Son débourrement précoce le rend également sensible aux gelées de printemps. Il se montre parfois sensible au millerandage lorsque les conditions climatiques sont défavorables au moment de la floraison. Le gamay présente l’avantage de produire une petite récolte sur les contre-bourgeons. Le vin de gamay possède une couleur rouge nuancée de violet, il est pauvre en tanins et dévoile une bonne acidité. Il possède généralement un caractère fruité (fruits rouges, fruits noirs) mais exprime peu de complexité au niveau aromatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Côte-de-brouilly</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4te-de-brouilly</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Culture de la vigne</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille est courte, en gobelet, éventail ou cordon, simple, double ou charmet avec 3 à 5 coursons à 1 ou 2 yeux.
+La conduite ancienne traditionnelle était en gobelet à densité élevée (entre 9 000 et 11 000 pieds par hectare).
+Aujourd'hui, le besoin de mécaniser le vignoble conduit les viticulteurs à planter à densité plus faible, mais supérieure à 6 000 pieds par hectare.
+L'écartement entre rangs ne peut excéder 2,3 mètres et entre ceps sur le rang, il doit être au minimum de 0,80 m. Pour les vignes non palissées en gobelet, l'écartement maximum entre rangs ne doit pas excéder 1,5 m. Des allées peuvent être aménagée en arrachant un rang de vigne. L'allée ne doit pas excéder 3 m et doit bénéficier d'un couvert végétal spontané ou semé. Les tournières doivent bénéficier d'un couvert végétal permanent.
+La hauteur de feuillage entre la limite inférieure du feuillage et la hauteur de rognage doit dépasser 0,6 fois l'écartement entre rangs et un palissage est obligatoire si l'écartement entre rangs dépasse 1,5 m.
+La taille courte est obligatoire. Traditionnellement en gobelet, la taille en cordon ou la taille « charmet » (taille inventée par M. Charmet en sud-Beaujolais, intermédiaire entre la taille en cordon et celle en éventail) sont aujourd'hui pratiquées. La taille est limitée à huit yeux porteurs de grappe après épamprage et un bras à deux yeux peut être ajouté en vue de rajeunir la souche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Côte-de-brouilly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4te-de-brouilly</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Vendanges et rendements</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rendement est limité à un maximum de 58 hectolitres par hectare ; le rendement butoir est de 63 hectolitres par hectare. Le rendement réel est très en dessous du maximum autorisé par le cahier des charges, par exemple le rendement moyen pour l'ensemble de l'appellation lors des vendanges 2010 est de 48,2 hectolitres par hectare.
+Les vendanges sont faites à la main, les grappes de raisin devant arriver intactes dans les cuves.
+Le premier jour des vendanges (appelé « levée du ban des vendanges ») varie selon la maturité des baies, qui dépend lui-même de l'ensoleillement reçu : les années relativement chaudes les raisins sont vendangés tôt, les années relativement froides les vendanges sont plus tardives.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Côte-de-brouilly</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4te-de-brouilly</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vins</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Vinification et élevage</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mode de vinification du beaujolais explique beaucoup le type de vins très particulier qui y est produit. On l'appelle la macération carbonique : le raisin est encuvé entier et la cuve est fermée pendant quelques jours. La saturation de la cuve empêche les raisins de respirer, les obligeant à un mode de fonctionnement anaérobie. Cette évolution à l'intérieur du grain de raisin s'apparente à un début de fermentation. Elle produit un peu d'alcool et des précurseurs d'arômes. Ensuite, le raisin est foulé et une fermentation traditionnelle se poursuit.
+Pour les dix crus du Beaujolais, surtout pour ceux destinés à être élevé pendant une année et à être gardé quelques années de plus en bouteille, la vinification est semi-carbonique, à mi-chemin de la macération carbonique et de la vinification bourguignonne. Le raisin est récolté manuellement, encuvé entier sans éraflage. La fermentation débute comme pour une macération carbonique, mais au moment où le marc destiné au primeur est décuvé et pressé, les cuves destinées au vin de garde sont pigées et la macération se poursuit jusqu'à épuisement presque complet des sucres. Le vin est ensuite écoulé, le marc pressé et la fermentation malolactique peut s'enclencher tant que la température n'est pas trop descendue.
+Ce procédé favorise la production de vins peu tanniques, une coloration pas trop soutenue et des arômes fruités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Côte-de-brouilly</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/C%C3%B4te-de-brouilly</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Économie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Structure des exploitations
-Commercialisation
-Les vins bénéficiant de l'appellation peuvent être repliés sur les appellations régionales beaujolaises (beaujolais et beaujolais-villages), mais aussi bourguignonnes, c'est-à-dire qu'ils peuvent être commercialisés sous les appellations bourgogne, bourgogne grand ordinaire, bourgogne ordinaire, bourgogne passe-tout-grains, bourgogne aligoté et crémant de Bourgogne (dont l'aire de production s'étend sur le Beaujolais, selon les deux décrets du 16 octobre 2009[10]).
-Liste de producteurs</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Commercialisation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins bénéficiant de l'appellation peuvent être repliés sur les appellations régionales beaujolaises (beaujolais et beaujolais-villages), mais aussi bourguignonnes, c'est-à-dire qu'ils peuvent être commercialisés sous les appellations bourgogne, bourgogne grand ordinaire, bourgogne ordinaire, bourgogne passe-tout-grains, bourgogne aligoté et crémant de Bourgogne (dont l'aire de production s'étend sur le Beaujolais, selon les deux décrets du 16 octobre 2009).
+</t>
         </is>
       </c>
     </row>
